--- a/CFA L3 2019/CFA_Readings Progress Tracker.xlsx
+++ b/CFA L3 2019/CFA_Readings Progress Tracker.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calvin.sung\Dropbox\Dropbox File Backups\CFA Level 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calvin.Sung\CodeProjects\CFA L3 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{266B281C-E366-48B2-9D29-818E26EAE5BF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{571D9D7F-3B76-46A7-9E41-86444DD33CC7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12216" windowHeight="2976" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12216" windowHeight="2976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Videos_Readings_QuestionTracker" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="29">
   <si>
     <t>Schweser readings last section</t>
   </si>
@@ -102,13 +102,29 @@
   </si>
   <si>
     <t>CFA Curriculum questions completed</t>
+  </si>
+  <si>
+    <t>Test Date</t>
+  </si>
+  <si>
+    <t>Today</t>
+  </si>
+  <si>
+    <t>Days left</t>
+  </si>
+  <si>
+    <t>Weeks left</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +135,13 @@
     <font>
       <b/>
       <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -149,10 +172,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -171,8 +195,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -451,13 +478,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="A11:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -549,10 +576,42 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="8">
+        <f ca="1">TODAY()</f>
+        <v>43436</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="8">
+        <v>43631</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <f ca="1">B12-B11</f>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="9">
+        <f ca="1">B13/7</f>
+        <v>27.857142857142858</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -563,9 +622,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G35"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>

--- a/CFA L3 2019/CFA_Readings Progress Tracker.xlsx
+++ b/CFA L3 2019/CFA_Readings Progress Tracker.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calvin.Sung\CodeProjects\CFA L3 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CS\CodeProjects\CFA L3 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{571D9D7F-3B76-46A7-9E41-86444DD33CC7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8DB9C834-B08B-4672-A19C-1B65BD991384}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12216" windowHeight="2976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12218" windowHeight="2978" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Videos_Readings_QuestionTracker" sheetId="1" r:id="rId1"/>
     <sheet name="ANKI" sheetId="2" r:id="rId2"/>
     <sheet name="Concepts to Review" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" calcMode="manual" iterate="1" iterateCount="30" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="179017" calcMode="manual" iterate="1" iterateCount="30" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -122,7 +122,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -196,7 +196,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -481,21 +481,21 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="A11:B12"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" customWidth="1"/>
-    <col min="5" max="7" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8.86328125" customWidth="1"/>
+    <col min="5" max="7" width="8.86328125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -514,7 +514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -525,10 +525,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -539,7 +539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -550,10 +550,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -564,7 +564,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -575,17 +575,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45"/>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="8">
         <f ca="1">TODAY()</f>
-        <v>43436</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>43437</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -593,25 +593,25 @@
         <v>43631</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>27</v>
       </c>
       <c r="B13">
         <f ca="1">B12-B11</f>
-        <v>195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="9">
         <f ca="1">B13/7</f>
-        <v>27.857142857142858</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3"/>
+        <v>27.714285714285715</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -627,20 +627,20 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1328125" customWidth="1"/>
     <col min="5" max="6" width="10.6640625" customWidth="1"/>
-    <col min="7" max="8" width="12.109375" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" customWidth="1"/>
-    <col min="10" max="11" width="9.109375" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" hidden="1"/>
+    <col min="7" max="8" width="12.1328125" customWidth="1"/>
+    <col min="9" max="9" width="17.46484375" customWidth="1"/>
+    <col min="10" max="11" width="9.1328125" customWidth="1"/>
+    <col min="12" max="16384" width="9.1328125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="57" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
@@ -669,7 +669,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -694,7 +694,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -720,7 +720,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4">
         <f t="shared" ref="A4:A35" si="0">A3+1</f>
         <v>3</v>
@@ -746,7 +746,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -772,7 +772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -802,7 +802,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -828,7 +828,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -854,7 +854,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -884,7 +884,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -912,7 +912,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -940,7 +940,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -968,7 +968,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -996,7 +996,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1024,7 +1024,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1052,7 +1052,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1080,7 +1080,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1108,7 +1108,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1136,7 +1136,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1164,7 +1164,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1192,7 +1192,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1220,7 +1220,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1248,7 +1248,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1276,7 +1276,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1304,7 +1304,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1332,7 +1332,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1356,7 +1356,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1380,7 +1380,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1404,7 +1404,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1428,7 +1428,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1452,7 +1452,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1476,7 +1476,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1502,7 +1502,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1528,7 +1528,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1554,7 +1554,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1580,12 +1580,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45"/>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45"/>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45"/>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45"/>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45"/>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1601,16 +1601,16 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.1328125" customWidth="1"/>
     <col min="2" max="2" width="49" style="3" customWidth="1"/>
-    <col min="3" max="3" width="83.109375" customWidth="1"/>
-    <col min="4" max="5" width="9.109375" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" hidden="1"/>
+    <col min="3" max="3" width="83.1328125" customWidth="1"/>
+    <col min="4" max="5" width="9.1328125" customWidth="1"/>
+    <col min="6" max="16384" width="9.1328125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -1621,143 +1621,143 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="3"/>
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
       <c r="C36" s="3"/>
     </row>

--- a/CFA L3 2019/CFA_Readings Progress Tracker.xlsx
+++ b/CFA L3 2019/CFA_Readings Progress Tracker.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CS\CodeProjects\CFA L3 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calvin.Sung\CodeProjects\CFA L3 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8DB9C834-B08B-4672-A19C-1B65BD991384}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5721C41D-F8D9-463D-B62C-9606A296E66B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12218" windowHeight="2978" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12216" windowHeight="2976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Videos_Readings_QuestionTracker" sheetId="1" r:id="rId1"/>
@@ -481,21 +481,21 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="B2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="8.86328125" customWidth="1"/>
-    <col min="5" max="7" width="8.86328125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="5" max="7" width="8.88671875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -514,7 +514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -525,10 +525,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -539,7 +539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -550,10 +550,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -564,7 +564,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -575,17 +575,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45"/>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="8">
         <f ca="1">TODAY()</f>
-        <v>43437</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+        <v>43449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -593,25 +593,25 @@
         <v>43631</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>27</v>
       </c>
       <c r="B13">
         <f ca="1">B12-B11</f>
-        <v>194</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="9">
         <f ca="1">B13/7</f>
-        <v>27.714285714285715</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -627,20 +627,20 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="15.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1328125" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
     <col min="5" max="6" width="10.6640625" customWidth="1"/>
-    <col min="7" max="8" width="12.1328125" customWidth="1"/>
-    <col min="9" max="9" width="17.46484375" customWidth="1"/>
-    <col min="10" max="11" width="9.1328125" customWidth="1"/>
-    <col min="12" max="16384" width="9.1328125" hidden="1"/>
+    <col min="7" max="8" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" customWidth="1"/>
+    <col min="10" max="11" width="9.109375" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
@@ -669,7 +669,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -694,7 +694,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -720,7 +720,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" ref="A4:A35" si="0">A3+1</f>
         <v>3</v>
@@ -746,7 +746,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -772,7 +772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -802,7 +802,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -828,7 +828,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -854,7 +854,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -884,7 +884,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -912,7 +912,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -940,7 +940,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -968,7 +968,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -996,7 +996,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1024,7 +1024,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1052,7 +1052,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1080,7 +1080,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1108,7 +1108,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1136,7 +1136,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1164,7 +1164,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1192,7 +1192,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1220,7 +1220,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1248,7 +1248,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1276,7 +1276,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1304,7 +1304,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1332,7 +1332,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1356,7 +1356,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1380,7 +1380,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1404,7 +1404,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1428,7 +1428,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1452,7 +1452,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1476,7 +1476,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1502,7 +1502,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1528,7 +1528,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1554,7 +1554,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1580,12 +1580,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45"/>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45"/>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45"/>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45"/>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45"/>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1601,16 +1601,16 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
     <col min="2" max="2" width="49" style="3" customWidth="1"/>
-    <col min="3" max="3" width="83.1328125" customWidth="1"/>
-    <col min="4" max="5" width="9.1328125" customWidth="1"/>
-    <col min="6" max="16384" width="9.1328125" hidden="1"/>
+    <col min="3" max="3" width="83.109375" customWidth="1"/>
+    <col min="4" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -1621,143 +1621,143 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="C36" s="3"/>
     </row>
